--- a/data/excel_data/ques/valid_ques_zh.xlsx
+++ b/data/excel_data/ques/valid_ques_zh.xlsx
@@ -27,1279 +27,1279 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
+    <t>NER的头衔的作词者的职业是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的前任是什么</t>
+  </si>
+  <si>
+    <t>与1948年战争期间，一艘埃及-英国制造的单桅帆船沉没NER有相同名称的人、事、物的配偶是哪位</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的前一任是谁</t>
+  </si>
+  <si>
+    <t>NER的南部城市属于哪个时区</t>
+  </si>
+  <si>
+    <t>美国犹他州塞维尔县的一个城镇NER西北部的地点西南部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>1998年的单曲，由沙奎尔·奥尼尔、dj奎克、塔里克勋爵和彼得·冈兹演唱NER的创作者的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者为哪个总统效力</t>
+  </si>
+  <si>
+    <t>NER影响到的国家和地区是谁领导的</t>
+  </si>
+  <si>
+    <t>NER，博茨瓦纳的一个柏格沃克人，它的所在省份的省会是哪里</t>
+  </si>
+  <si>
+    <t>来自阿拉巴马州的美国政治家NER的头衔属于哪里用什么时区</t>
+  </si>
+  <si>
+    <t>NER的同名的标志性地点是哪里</t>
+  </si>
+  <si>
+    <t>NER的继任者的头衔的副手被称为什么</t>
+  </si>
+  <si>
+    <t>NER的主场西北部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER的领导人的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的分类等级是什么</t>
+  </si>
+  <si>
+    <t>NER，英国政治家（生于1967年），其领导人所属的党派是什么</t>
+  </si>
+  <si>
+    <t>NER的同名有什么标志性的地点</t>
+  </si>
+  <si>
+    <t>NER的后裔具有哪些头衔</t>
+  </si>
+  <si>
+    <t>与德拉奇级装甲护卫舰NER有相同名称的人、事、物的分类等级是什么</t>
+  </si>
+  <si>
+    <t>NER的同名参加了什么战争</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物领导人的头衔有哪些</t>
+  </si>
+  <si>
+    <t>NER的母校的所属国家是什么</t>
+  </si>
+  <si>
+    <t>NER，爱尔兰男爵，其母校驻守的区域是哪里</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的后裔是谁</t>
+  </si>
+  <si>
+    <t>NER的郡东北边的海洋叫什么</t>
+  </si>
+  <si>
+    <t>NER，英国政治家（生于1943年），其头衔的现任就职者的前任是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的省会是哪里</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER，70年的纽约尼克斯赛季，国家篮球协会球队纽约尼克斯队的一个赛季的举办地东北部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER所属的区域东北部的地点的首都（或省会）是哪里</t>
+  </si>
+  <si>
+    <t>被用来命名NER的人的成名作是什么</t>
+  </si>
+  <si>
+    <t>足球比赛NER的举办地西北部的地点在什么位置</t>
+  </si>
+  <si>
+    <t>NER的母校的所在的省份是哪里</t>
+  </si>
+  <si>
+    <t>NER，一项国际足球比赛，其举办地的上一代的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER的头衔的作词者的毕业学校是哪里</t>
+  </si>
+  <si>
+    <t>NER的相关产品（作品）与什么有关</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的分类等级是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的运营方所属城市是哪里</t>
+  </si>
+  <si>
+    <t>被用来命名NER的人住过的地方有哪些</t>
+  </si>
+  <si>
+    <t>NER，一个体育季，它的队伍的地址在哪里</t>
+  </si>
+  <si>
+    <t>在NER里的人士是谁的孩子</t>
+  </si>
+  <si>
+    <t>同2017年超级碗的中场休息秀NER的赞助商相关的事物是什么</t>
+  </si>
+  <si>
+    <t>NER相关赛事在哪里举办的</t>
+  </si>
+  <si>
+    <t>2013年超级少年专辑NER的头衔的作词者的职业是什么</t>
+  </si>
+  <si>
+    <t>NER的创作者是什么类型的</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的后裔是谁</t>
+  </si>
+  <si>
+    <t>NER，美国犹他州前童子军委员会，其位置东部的地点属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者是谁的继任者</t>
+  </si>
+  <si>
+    <t>使用NER的国家的标签是什么</t>
+  </si>
+  <si>
+    <t>NER的镇长在哪儿驻地</t>
+  </si>
+  <si>
+    <t>NER，古埃及早期王朝邦联（约公元3150年），其领导人的前一任是谁</t>
+  </si>
+  <si>
+    <t>美国中南部的高地地区NER所属的区域的立法机构是谁领导的</t>
+  </si>
+  <si>
+    <t>NER西北部的地点南部的地点在哪个区域</t>
+  </si>
+  <si>
+    <t>NER的创作者做什么职业的</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人的逝世地是哪里</t>
+  </si>
+  <si>
+    <t>NER名称的来源的职业是什么</t>
+  </si>
+  <si>
+    <t>天主教主教NER逝世的地方东北部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER的举办地的立法机构属于哪个王朝</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者是做什么职业的</t>
+  </si>
+  <si>
+    <t>NER，汤米·弗拉纳根的专辑，其创作者的职业是什么</t>
+  </si>
+  <si>
+    <t>NER的所在城市西北部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的后裔的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其自治区南部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的郡西边的地方叫什么</t>
+  </si>
+  <si>
+    <t>NER的西北方地点属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的队长的定位是什么</t>
+  </si>
+  <si>
+    <t>NER的统治者的后裔的头衔是什么</t>
+  </si>
+  <si>
+    <t>和NER，一艘船，它名称一样的人或事物的妈妈叫什么</t>
+  </si>
+  <si>
+    <t>NER的母校效力的总统是谁</t>
+  </si>
+  <si>
+    <t>NER的赞助商是什么选区</t>
+  </si>
+  <si>
+    <t>NER的赞助商有什么产品</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物属于什么分类等级</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人的领域是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的租客的主席是谁</t>
+  </si>
+  <si>
+    <t>NER，昆虫的一个属，其代表西部的地点属于哪个时区</t>
+  </si>
+  <si>
+    <t>掌管NER的人的将领是谁</t>
+  </si>
+  <si>
+    <t>在NER，位于西班牙加泰罗尼亚baix Llobregat的一个小镇，其西北部的地方的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者是谁的上一任</t>
+  </si>
+  <si>
+    <t>NER的举办地的继任者的佃户是谁</t>
+  </si>
+  <si>
+    <t>和受NER，一艘历史悠久的法国船只，它名称一样的人或事物影响的人是谁</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的区划是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其俱乐部地点的队长现在属于哪个俱乐部</t>
+  </si>
+  <si>
+    <t>NER的赞助商的产品是什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物有哪些后代</t>
+  </si>
+  <si>
+    <t>NER的父亲所属的王朝是什么</t>
+  </si>
+  <si>
+    <t>日本贵族（1536-1612）NER的父亲的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER持有的席位的所属议会属于哪个党派</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物最大的城市是什么</t>
+  </si>
+  <si>
+    <t>与NER，一艘轻巡洋舰，它有相同名称的人、事、物的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的头衔的作词者的语言是什么</t>
+  </si>
+  <si>
+    <t>与智能手机模型NER相关的产品的生产商是谁</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的上一代是什么</t>
+  </si>
+  <si>
+    <t>巴西的一个联邦州NER的最大城市的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的发源地的行政中心属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER负责的行政区域的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>足球比赛NER的举办地东部的地点领导人的名字是</t>
+  </si>
+  <si>
+    <t>NER的举办地的运营方效力的联赛是哪个</t>
+  </si>
+  <si>
+    <t>NER的所在省份属于哪个时区</t>
+  </si>
+  <si>
+    <t>古埃及女王的配偶NER的配偶的下一代的母亲是谁</t>
+  </si>
+  <si>
+    <t>和意大利航线的客轮NER名称一样的人或事物所属的王朝是什么</t>
+  </si>
+  <si>
+    <t>同NER的相关事物相关的事物是什么</t>
+  </si>
+  <si>
     <t>NER，西班牙塔拉戈纳市，其西北方地点属于哪个区划</t>
   </si>
   <si>
-    <t>被用来命名NER的人住过的地方有哪些</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的分类等级是什么</t>
-  </si>
-  <si>
-    <t>足球比赛NER的举办地西北部的地点在什么位置</t>
+    <t>NER逝世的地方西部的地点属于哪个区划</t>
   </si>
   <si>
     <t>美国第一夫人；美国第37任总统NER的妻子（1912-1993）帕特·尼克松的继任者的头衔的之前是什么地方</t>
   </si>
   <si>
-    <t>NER的选举获胜者是谁的继任者</t>
+    <t>NER名称的来源是做什么职业的</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的所属区域是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的队长现在属于哪个俱乐部</t>
+  </si>
+  <si>
+    <t>NER，足球队的赛季，其举办地的运营方所属城市是哪里</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，它的举办地的继任者的佃户是谁</t>
+  </si>
+  <si>
+    <t>NER引发的结果有关的人或物的继任者是哪位</t>
+  </si>
+  <si>
+    <t>孟加拉国总统NER的头衔的现任就职者具有哪些头衔</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人的母校是什么</t>
+  </si>
+  <si>
+    <t>NER的作词者的上一代属于哪个民族的</t>
+  </si>
+  <si>
+    <t>NER的位置西部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>孤立的人类群体NER相关的事件的地区是什么</t>
+  </si>
+  <si>
+    <t>NER，法国的一个州，其主要城镇在哪儿驻地</t>
+  </si>
+  <si>
+    <t>美国海军史基普·范德NER的同名的时区是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物逝世的地方是哪里</t>
+  </si>
+  <si>
+    <t>NER的同名的继任者是哪位</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人逝世的地方是哪里</t>
+  </si>
+  <si>
+    <t>美国犹他州犹他县的一座山脉NER的所在城市东北部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的同名的领导人叫什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的成名作是什么</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的举办地被谁租用</t>
+  </si>
+  <si>
+    <t>法国的一个州（至2015年3月）NER的主要城镇在哪儿驻地</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物属于什么分类等级</t>
+  </si>
+  <si>
+    <t>NER扮演过就职的地方是哪里</t>
+  </si>
+  <si>
+    <t>美国犹他州米勒德县的一个城镇NER东南部的地点东部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个季节，它的举办地的租客的地址在哪里</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的运营方被命名为什么</t>
+  </si>
+  <si>
+    <t>NER，法国的一个州，其主要城镇的驻地在哪儿</t>
+  </si>
+  <si>
+    <t>美国雕塑家NER的母校附属于哪个机构</t>
+  </si>
+  <si>
+    <t>NER的领导人在哪里就职</t>
+  </si>
+  <si>
+    <t>NER涉及的事件是哪个地区的</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者在哪里就职</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物是什么的一部分</t>
+  </si>
+  <si>
+    <t>NER的赞助商的所属产业是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的继任者的拥有者是谁</t>
+  </si>
+  <si>
+    <t>NER的创作者的类型是什么</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其俱乐部地点的队长的所在球队是什么</t>
+  </si>
+  <si>
+    <t>NER的国籍的立法机构所属的党派是什么</t>
+  </si>
+  <si>
+    <t>西班牙巴塞罗那省和加泰罗尼亚自治区的一个村庄NER的南边地区的时区是什么</t>
+  </si>
+  <si>
+    <t>香港政治家NER扮演过的继任者是哪位</t>
+  </si>
+  <si>
+    <t>与船NER有相同名称的人、事、物的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER涉及的事件的前一任是谁</t>
   </si>
   <si>
     <t>与NER有相同名称的人、事、物在哪里逝世的</t>
   </si>
   <si>
+    <t>NER，西班牙加泰罗尼亚奥索纳科马卡市的一个自治市，其西北方地点属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER的将领有哪些后代</t>
+  </si>
+  <si>
+    <t>被用来命名NER的人有什么成名作</t>
+  </si>
+  <si>
+    <t>NER参加的重要赛事的参赛队伍是谁</t>
+  </si>
+  <si>
+    <t>与齿轮级驱逐舰NER有相同名称的人、事、物所属的党派是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的选民出自哪里</t>
+  </si>
+  <si>
+    <t>在NER的西北部的地方的所属区域是什么</t>
+  </si>
+  <si>
+    <t>1915年皇家海军伊丽莎白女王级战舰NER的同名发生的事件</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的妈妈叫什么</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的拥有者是谁创始的</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的配偶是哪位</t>
+  </si>
+  <si>
+    <t>日本女皇（680-748）NER的父亲有哪些后代</t>
+  </si>
+  <si>
+    <t>沃尔NER的选举获胜者的前一任是谁</t>
+  </si>
+  <si>
+    <t>美国犹他州博克斯埃尔德县的一个城镇NER东部的地点南部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>在美国代托纳举行的汽车比赛NER的赞助商有什么产品</t>
+  </si>
+  <si>
+    <t>NER相关的事件的后裔是谁</t>
+  </si>
+  <si>
+    <t>NER的前任的头衔属于哪里</t>
+  </si>
+  <si>
+    <t>NER的同名有哪些后代</t>
+  </si>
+  <si>
+    <t>NER的同名是谁的孩子</t>
+  </si>
+  <si>
+    <t>法国政治家（1907-2000）NER的上一代的前任所属的党派是什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物用什么邮政编码</t>
+  </si>
+  <si>
+    <t>NER的南边地区的时区是什么</t>
+  </si>
+  <si>
+    <t>战争NER的参与国之前的机构叫什么</t>
+  </si>
+  <si>
+    <t>北爱尔兰贝尔法斯特的一座民用建筑NER所在国家建立的标志事件是什么</t>
+  </si>
+  <si>
+    <t>NER的统治者的配偶的头衔是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的立法机构属于哪个党派</t>
+  </si>
+  <si>
+    <t>NER，1892年，日本在1892年举行的一次大选的选举获胜者的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER的举办地的运营方在哪个城市</t>
+  </si>
+  <si>
+    <t>NER的母校属于什么类型</t>
+  </si>
+  <si>
+    <t>NER的作者的继任者做什么职业的</t>
+  </si>
+  <si>
+    <t>NER的举办地的代表在哪个国家</t>
+  </si>
+  <si>
+    <t>NER，加泰罗尼亚的一个自治市，其西北方向的地区的区划是什么</t>
+  </si>
+  <si>
+    <t>被用来命名NER的人的出生地是哪里</t>
+  </si>
+  <si>
+    <t>NER的赞助商的出版商是哪个</t>
+  </si>
+  <si>
+    <t>NER的南部城市属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER的所在城市西南部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>沃尔NER的选举获胜者在哪个州</t>
+  </si>
+  <si>
+    <t>NER名称的来源的国籍是什么</t>
+  </si>
+  <si>
+    <t>NER的创作者的职业是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物在什么位置</t>
+  </si>
+  <si>
+    <t>沃尔NER的选举获胜者具有哪些头衔</t>
+  </si>
+  <si>
+    <t>NER的将领具有哪些头衔</t>
+  </si>
+  <si>
+    <t>NER，一个足球队的赛季，它的举办地的租客的主席叫什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的出生地是哪里</t>
+  </si>
+  <si>
+    <t>NER的位置的行政中心属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的队长效力于哪个球队</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的母校是什么</t>
+  </si>
+  <si>
+    <t>NER，法国的一个州，其主要城镇的属于哪个区</t>
+  </si>
+  <si>
+    <t>NER的母校在哪个城市</t>
+  </si>
+  <si>
+    <t>NER的举办地东南部的地点用什么时区</t>
+  </si>
+  <si>
+    <t>和NER，一艘阿利·伯克级导弹驱逐舰，其名称一样的人或事物参加的战争是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的运营方的地址在哪里</t>
+  </si>
+  <si>
     <t>NER的举办地的运营方的经理是谁</t>
   </si>
   <si>
+    <t>名字被用于命名NER的人属于哪个领域的</t>
+  </si>
+  <si>
+    <t>丹麦王子（生于1969年）NER的后裔的继任者的母亲是谁</t>
+  </si>
+  <si>
+    <t>NER的创作者使用的乐器是什么</t>
+  </si>
+  <si>
+    <t>被用来命名NER的人的出生地在哪里</t>
+  </si>
+  <si>
+    <t>NER的主题是什么类型的</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人影响了谁</t>
+  </si>
+  <si>
+    <t>美国篮球教练NER的母校所属城市是哪里</t>
+  </si>
+  <si>
+    <t>NER的南边地区在哪个区域</t>
+  </si>
+  <si>
+    <t>维基媒体列表文章NER俱乐部地点的队长效力于哪个球队</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，其举办地的运营方被命名为什么</t>
+  </si>
+  <si>
+    <t>NER的母校的附属机构是什么</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的队长的所在球队是什么</t>
+  </si>
+  <si>
+    <t>在NER南边的地点属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER的所在省份在国内属于什么区域</t>
+  </si>
+  <si>
+    <t>NER的举办地的运营方在哪儿</t>
+  </si>
+  <si>
+    <t>NER的赞助商是什么类型的公司</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物有什么标志性的地点</t>
+  </si>
+  <si>
+    <t>NER的头衔的首任的前一任是谁</t>
+  </si>
+  <si>
+    <t>NER的南部城市用什么时区</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，其举办地的运营方所属城市是哪里</t>
+  </si>
+  <si>
+    <t>芬兰赛车手NER的所属队伍的创始人的出生地在哪里</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人在哪个区域</t>
+  </si>
+  <si>
+    <t>美国犹他州桑皮特县的一个城镇NER南部的地点西北部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的委托人有哪些后代</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人的成名作是什么</t>
+  </si>
+  <si>
+    <t>NER的位置北部的城市在哪个区域</t>
+  </si>
+  <si>
+    <t>NER的继任者俱乐部地点被命名为什么</t>
+  </si>
+  <si>
+    <t>NER的同名的分类等级是什么</t>
+  </si>
+  <si>
+    <t>被用来命名NER的人的母校叫什么</t>
+  </si>
+  <si>
+    <t>与NER，一艘法国船，它有相同名称的人、事、物属于哪个区划</t>
+  </si>
+  <si>
+    <t>美国大学橄榄球队赛季NER的位置的运营方是谁的上一任</t>
+  </si>
+  <si>
+    <t>NER，一位中国政治家（1886-1975），他扮演过的主席是谁</t>
+  </si>
+  <si>
+    <t>NER的领导人的前一任是谁</t>
+  </si>
+  <si>
+    <t>与NER有关的产品或作品是谁创造的</t>
+  </si>
+  <si>
+    <t>NER的同名属于什么分类等级</t>
+  </si>
+  <si>
+    <t>NER所在国家建立的标志事件是什么</t>
+  </si>
+  <si>
+    <t>NER的父亲属于哪个王朝</t>
+  </si>
+  <si>
+    <t>NER的南部城市的时区是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者具有哪些头衔</t>
+  </si>
+  <si>
+    <t>NER，居住在美国境外的美国公民，其所属的区域的立法机构属于哪个党派</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物有哪些后代</t>
+  </si>
+  <si>
+    <t>NER，一个足球队的赛季，它的位置的代表是哪个国家的</t>
+  </si>
+  <si>
+    <t>NER的候选的头衔现在由谁担任</t>
+  </si>
+  <si>
+    <t>NER的子女具有哪些头衔</t>
+  </si>
+  <si>
+    <t>NER所包含的赛事在哪里举办的</t>
+  </si>
+  <si>
+    <t>NER的事件说什么通用语言</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物效忠于谁</t>
+  </si>
+  <si>
+    <t>NER的同名的立法机构是什么</t>
+  </si>
+  <si>
+    <t>NER的继任者的队长现在属于哪个俱乐部</t>
+  </si>
+  <si>
+    <t>NER，美国大学篮球赛季，其主场西部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，其位置西南部的地点的时区是什么</t>
+  </si>
+  <si>
+    <t>维基媒体列表文章NER的位置西南部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的时区是什么</t>
+  </si>
+  <si>
+    <t>NER，一艘法国“查卡尔”级的主力舰，其同名属于什么分类等级</t>
+  </si>
+  <si>
+    <t>NER的位置西北部的地点领导人的头衔是什么</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物的出生地是哪里</t>
+  </si>
+  <si>
+    <t>NER的同名属于哪个党派</t>
+  </si>
+  <si>
+    <t>NER的西北方地点的驻地在哪儿</t>
+  </si>
+  <si>
+    <t>NER的后裔的下一任的爸爸是谁</t>
+  </si>
+  <si>
+    <t>与巴库登瓷器NER有相同名称的人、事、物的缘由是什么</t>
+  </si>
+  <si>
+    <t>NER的父亲的配偶是哪位</t>
+  </si>
+  <si>
+    <t>NER扮演过在哪里就职</t>
+  </si>
+  <si>
+    <t>2000年欧洲足球锦标赛的最后一场比赛NER相关赛事在哪里举办的</t>
+  </si>
+  <si>
+    <t>NER，这是一首由卡洛斯·桑塔纳演唱的歌曲，它是的创作者用的是什么乐器</t>
+  </si>
+  <si>
+    <t>NER的出生国家领导者的职称是什么</t>
+  </si>
+  <si>
+    <t>NER，一位中国政治家（1913-2010），他的头衔的提名者的现任就职者是谁</t>
+  </si>
+  <si>
+    <t>NER的成名作的运营方是谁</t>
+  </si>
+  <si>
+    <t>NER的举办地的上一代是谁的上一任</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物是什么级别的</t>
+  </si>
+  <si>
+    <t>NER，一位2世纪的罗马参议员、执政官和州长，他的上一代的继任者在哪里逝世的</t>
+  </si>
+  <si>
+    <t>NER，俾斯麦级战列舰，其同名获得的奖项是什么</t>
+  </si>
+  <si>
+    <t>为NER演出的歌手用什么语言</t>
+  </si>
+  <si>
+    <t>NER，美国大学篮球赛季，其主场的立法机构是谁领导的</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物参加了什么战争</t>
+  </si>
+  <si>
+    <t>NER东南部的地点西南部的地点在哪个区域</t>
+  </si>
+  <si>
+    <t>NER的位置西北部的地点领导人的名字是</t>
+  </si>
+  <si>
+    <t>维基媒体列表文章NER的所在城市南部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的发源地西南部的地点的省会是哪里</t>
+  </si>
+  <si>
+    <t>美国大学篮球赛季NER的主场北部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的出生地在哪里</t>
+  </si>
+  <si>
+    <t>NER的候选的别名是谁的继任者</t>
+  </si>
+  <si>
+    <t>NER的父母信仰哪个宗教</t>
+  </si>
+  <si>
+    <t>芬兰赛车手NER的所属队伍的拥有者中谁最重要</t>
+  </si>
+  <si>
+    <t>NER的父（母）亲是谁的上一任</t>
+  </si>
+  <si>
+    <t>与纵帆船、西班牙训练船NER有相同名称的人、事、物逝世的地方是哪里</t>
+  </si>
+  <si>
+    <t>NER的所属队伍的创始人是做什么职业的</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其俱乐部地点的队长的出生城市在哪里</t>
+  </si>
+  <si>
+    <t>NER的南部城市的区划是什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物属于哪个区划</t>
+  </si>
+  <si>
+    <t>维基媒体列表文章NER的所在城市南部的地点用什么时区</t>
+  </si>
+  <si>
+    <t>NER，wwe的2012冠军之夜按次付费，其赞助商是谁主演的</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的队长所属国家队是什么</t>
+  </si>
+  <si>
+    <t>明尼苏达州的选举NER的选举获胜者获得的奖项是什么</t>
+  </si>
+  <si>
+    <t>NER的头衔的作词者做什么职业的</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>NER的相关事物与什么有关</t>
+  </si>
+  <si>
+    <t>谁是使用NER的国家的皇帝</t>
+  </si>
+  <si>
+    <t>谁领导了NER的事件</t>
+  </si>
+  <si>
+    <t>和阿利·伯克级驱逐舰，该级别的主力舰NER名称一样的人或事物获得的奖项是什么</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其所在城市西北部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的后裔是谁的上一任</t>
+  </si>
+  <si>
+    <t>使用古代朝鲜百济王国的一种语言NER的国家信仰哪个宗教</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，其教练的定位是什么</t>
+  </si>
+  <si>
+    <t>在西班牙的一个自治市NER的西北部的地方的区划是什么</t>
+  </si>
+  <si>
+    <t>美国大学橄榄球队赛季NER的位置的运营方的前任是什么</t>
+  </si>
+  <si>
+    <t>NER的候选的毕业院校的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>法国的一个州（至2015年3月）NER的主要城镇是哪个区的</t>
+  </si>
+  <si>
+    <t>NER的同名是谁的继任者</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，它的位置西北部的地点领导人的头衔有哪些</t>
+  </si>
+  <si>
+    <t>演唱NER歌曲的艺人的类型是什么</t>
+  </si>
+  <si>
+    <t>NER的同名信仰哪个宗教</t>
+  </si>
+  <si>
+    <t>西班牙加泰罗尼亚的一个自治市NER的西北方地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER南部的地点东部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的爸爸是谁</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人的职业是什么</t>
+  </si>
+  <si>
+    <t>参与蔡依林2006年的一首歌NER的歌手的职业是什么</t>
+  </si>
+  <si>
+    <t>NER的头衔的第一人参加了什么战争</t>
+  </si>
+  <si>
+    <t>NER，足球队的赛季，其举办地的运营方效力于哪个联赛</t>
+  </si>
+  <si>
+    <t>NER的头衔的下一任的上一代是谁</t>
+  </si>
+  <si>
+    <t>NER，安瓦尔，2006年的选举获胜者的继任者是哪位</t>
+  </si>
+  <si>
     <t>NER的父母是谁的继任者</t>
   </si>
   <si>
-    <t>和意大利航线的客轮NER名称一样的人或事物所属的王朝是什么</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者为哪个总统效力</t>
-  </si>
-  <si>
-    <t>芬兰赛车手NER的所属队伍的拥有者中谁最重要</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的头衔的作词者的毕业学校是哪里</t>
+    <t>和NER名称一样的人或事物在什么地方出生的</t>
+  </si>
+  <si>
+    <t>NER，一个菲利阿兹克斯，它的主题的作者是谁</t>
+  </si>
+  <si>
+    <t>与NER，一艘船，它有相同名称的人、事、物属于什么分类等级</t>
+  </si>
+  <si>
+    <t>NER，足球队的一个赛季，其位置西北部的地点领导人的头衔有哪些</t>
+  </si>
+  <si>
+    <t>西班牙加泰罗尼亚的一个自治市NER的南边地区的区划是什么</t>
+  </si>
+  <si>
+    <t>波兰东南部的一座山脉NER的父本的行政中心用什么时区</t>
+  </si>
+  <si>
+    <t>蔡依林2006年的一首歌NER歌曲的演唱歌手做什么职业的</t>
+  </si>
+  <si>
+    <t>NER的候选的前任在哪里就职</t>
+  </si>
+  <si>
+    <t>NER所包含的赛事的举办地在哪里</t>
+  </si>
+  <si>
+    <t>NER的位置北部的地点在哪个区域</t>
+  </si>
+  <si>
+    <t>NER的领导人是谁的继任者</t>
+  </si>
+  <si>
+    <t>被用来命名泰坦上的湖NER的人在什么位置</t>
+  </si>
+  <si>
+    <t>NER，西班牙的一个自治市，其南边地区属于哪个时区</t>
+  </si>
+  <si>
+    <t>一种结NER的相关产品（作品）与什么有关</t>
+  </si>
+  <si>
+    <t>汉堡护航船NER的同名是谁的继任者</t>
+  </si>
+  <si>
+    <t>NER的父母的后代是什么</t>
+  </si>
+  <si>
+    <t>NER的领导人的母校叫什么</t>
+  </si>
+  <si>
+    <t>NER的国家队的举办地的成立是由哪个事件决定的</t>
+  </si>
+  <si>
+    <t>NER的同名的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的头衔属于哪里属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER的举办地南部的地点在哪个区域</t>
+  </si>
+  <si>
+    <t>美国犹他州米勒德县的一个城市和县城NER东南部的地点北部的地点用什么时区</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的前一任是谁</t>
+  </si>
+  <si>
+    <t>名字在维基媒体列表文章NER中的人的类型是什么</t>
+  </si>
+  <si>
+    <t>NER的领导人信仰哪个宗教</t>
+  </si>
+  <si>
+    <t>NER的位置南部的地点领导人的头衔是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者所在的州是哪里</t>
+  </si>
+  <si>
+    <t>足球队的一个赛季NER参加的重要赛事的参赛队伍是谁</t>
+  </si>
+  <si>
+    <t>NER的镇长的驻地在哪儿</t>
+  </si>
+  <si>
+    <t>和NER名称一样的人或事物在哪里逝世的</t>
+  </si>
+  <si>
+    <t>埃及国王NER的配偶的母亲有哪些后代</t>
+  </si>
+  <si>
+    <t>NER逝世的地方西部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>NER的领导人是谁领导的</t>
+  </si>
+  <si>
+    <t>名字被用于命名NER的人的出生地在哪里</t>
+  </si>
+  <si>
+    <t>与哪些国家在NER有相同名称的人、事、物中参与了战争</t>
+  </si>
+  <si>
+    <t>一个地理区域的语言NER歌曲的演唱歌手的所属国家是什么</t>
+  </si>
+  <si>
+    <t>NER东部的地点西北部的地点在哪个区域</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的头衔是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者所属的党派是什么</t>
+  </si>
+  <si>
+    <t>足球队的一个赛季NER的位置北部的城市属于哪个时区</t>
+  </si>
+  <si>
+    <t>同NER的赞助商相关的事物是什么</t>
+  </si>
+  <si>
+    <t>战斗NER引发的结果有关的人或物的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER的作词者的上一代用什么语言</t>
+  </si>
+  <si>
+    <t>西班牙加泰罗尼亚自治区吉罗纳省的一个村庄NER的西北方地点在哪个区域</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其俱乐部地点的队长所属国家队是什么</t>
+  </si>
+  <si>
+    <t>维基媒体列表文章NER的位置东部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的主场东南部的地点的区划是什么</t>
+  </si>
+  <si>
+    <t>在NER南边的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>与NER，一艘法国驱逐舰，它有相同名称的人、事、物的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>NER的举办地的租客由哪个经理领导</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物参加的战争是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的前任是什么</t>
+  </si>
+  <si>
+    <t>NER，美国大学篮球赛季，其主场南部的地点属于哪个区划</t>
+  </si>
+  <si>
+    <t>NER的后裔的上一代的母亲是谁</t>
+  </si>
+  <si>
+    <t>一场体育比赛NER的举办地东部的地点的领导人叫什么</t>
+  </si>
+  <si>
+    <t>NER的同名的头衔是什么</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其俱乐部地点的队长有什么定位</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其俱乐部地点的队长效力于哪个球队</t>
+  </si>
+  <si>
+    <t>为omarion的专辑NER演出的歌手是做什么职业的</t>
+  </si>
+  <si>
+    <t>NER的位置东北部的地点属于哪个时区</t>
+  </si>
+  <si>
+    <t>NER的同名用什么邮政编码</t>
+  </si>
+  <si>
+    <t>NER的领导人的头衔是什么</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物领导人的名字是</t>
+  </si>
+  <si>
+    <t>NER的同名的省会是哪里</t>
+  </si>
+  <si>
+    <t>NER的发源地的行政中心的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的教练参加过的社团是什么</t>
+  </si>
+  <si>
+    <t>1998年的单曲，由沙奎尔·奥尼尔、dj奎克、塔里克勋爵和彼得·冈兹演唱NER的创作者的选秀队伍是什么</t>
+  </si>
+  <si>
+    <t>NER，一个体育频道，它的赞助商的产品是什么</t>
+  </si>
+  <si>
+    <t>NER的同名的来源是什么</t>
+  </si>
+  <si>
+    <t>NER所属的唱片公司是谁创始的</t>
+  </si>
+  <si>
+    <t>NER的配偶的配偶的信仰宗教是什么</t>
+  </si>
+  <si>
+    <t>NER的国家队的位置的立法机构是什么</t>
+  </si>
+  <si>
+    <t>乌克兰足球运动员NER的国家队的举办地西北部是什么地方</t>
+  </si>
+  <si>
+    <t>NER的同名与什么有关</t>
+  </si>
+  <si>
+    <t>NER的父亲的继任者是哪位</t>
+  </si>
+  <si>
+    <t>与NER有相同名称的人、事、物的隶属行政区是哪里</t>
+  </si>
+  <si>
+    <t>NER，一个跨大学篮球赛季，其主场的所属区划的地区是什么</t>
+  </si>
+  <si>
+    <t>NER的将领的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER的继任者的上一代的继任者是哪位</t>
+  </si>
+  <si>
+    <t>NER的母校附属于哪个机构</t>
+  </si>
+  <si>
+    <t>NER的领导人的首相是谁</t>
+  </si>
+  <si>
+    <t>NER俱乐部地点的队长出生的国家是什么</t>
+  </si>
+  <si>
+    <t>NER，维基媒体列表文章，其所在城市东部的地点的所属区域是什么</t>
+  </si>
+  <si>
+    <t>NER的选举获胜者的君王是谁</t>
+  </si>
+  <si>
+    <t>NER的后裔属于哪个王朝</t>
+  </si>
+  <si>
+    <t>NER的候选的继任者具有哪些头衔</t>
+  </si>
+  <si>
+    <t>NER的主场东部的地点在哪个区域</t>
+  </si>
+  <si>
+    <t>NER的继任者的运营方的上一代是什么</t>
   </si>
   <si>
     <t>美国犹他州埃默里县的一座城市NER西南部的地点西部的地点属于哪个时区</t>
   </si>
   <si>
+    <t>NER的同名是谁的上一任</t>
+  </si>
+  <si>
+    <t>参与维基媒体列表文章NER的所在城市的命名来源的国家有哪些</t>
+  </si>
+  <si>
+    <t>和NER，一艘历史悠久的法国船只，它名称一样的人或事物影响了谁</t>
+  </si>
+  <si>
+    <t>2003年世界摔跤娱乐付费观看活动NER的赞助商属于哪个系列</t>
+  </si>
+  <si>
+    <t>NER相关的事件由哪位将领领导</t>
+  </si>
+  <si>
+    <t>NER的父亲的出生地是哪里</t>
+  </si>
+  <si>
+    <t>NER的位置东北部的地点的区划是什么</t>
+  </si>
+  <si>
     <t>NER，一项国际足球比赛，其位置西部的地点的区划是什么</t>
   </si>
   <si>
-    <t>NER，一位中国政治家（1913-2010），他的头衔的提名者的现任就职者是谁</t>
-  </si>
-  <si>
-    <t>NER的母校的附属机构是什么</t>
-  </si>
-  <si>
-    <t>NER南部的地点东部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER，一项国际足球比赛，其举办地的上一代的继任者是哪位</t>
-  </si>
-  <si>
-    <t>名字在维基媒体列表文章NER中的人的类型是什么</t>
-  </si>
-  <si>
-    <t>与NER，一艘轻巡洋舰，它有相同名称的人、事、物的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的队长的所在球队是什么</t>
-  </si>
-  <si>
-    <t>NER的举办地的运营方在哪儿</t>
-  </si>
-  <si>
-    <t>NER，法国的一个州，其主要城镇的驻地在哪儿</t>
-  </si>
-  <si>
-    <t>沃尔NER的选举获胜者的前一任是谁</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的出生地是哪里</t>
-  </si>
-  <si>
-    <t>NER的创作者的职业是什么</t>
-  </si>
-  <si>
-    <t>NER的郡东北边的海洋叫什么</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的前一任是谁</t>
-  </si>
-  <si>
-    <t>NER西北部的地点南部的地点在哪个区域</t>
-  </si>
-  <si>
-    <t>NER扮演过就职的地方是哪里</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的头衔是什么</t>
-  </si>
-  <si>
-    <t>NER，美国犹他州前童子军委员会，其位置东部的地点属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER的父（母）亲是谁的上一任</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的出生地在哪里</t>
-  </si>
-  <si>
-    <t>NER的后裔具有哪些头衔</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物领导人的名字是</t>
-  </si>
-  <si>
-    <t>掌管NER的人的将领是谁</t>
-  </si>
-  <si>
-    <t>NER的赞助商的所属产业是什么</t>
-  </si>
-  <si>
-    <t>NER相关赛事在哪里举办的</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的配偶是哪位</t>
-  </si>
-  <si>
-    <t>NER的创作者做什么职业的</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人的出生地在哪里</t>
-  </si>
-  <si>
-    <t>美国犹他州米勒德县的一个城市和县城NER东南部的地点北部的地点用什么时区</t>
-  </si>
-  <si>
-    <t>法国的一个州（至2015年3月）NER的主要城镇在哪儿驻地</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>2013年超级少年专辑NER的头衔的作词者的职业是什么</t>
-  </si>
-  <si>
-    <t>西班牙加泰罗尼亚的一个自治市NER的西北方地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER的举办地的运营方效力的联赛是哪个</t>
-  </si>
-  <si>
-    <t>一个地理区域的语言NER歌曲的演唱歌手的所属国家是什么</t>
-  </si>
-  <si>
-    <t>NER的候选的别名是谁的继任者</t>
-  </si>
-  <si>
-    <t>和阿利·伯克级驱逐舰，该级别的主力舰NER名称一样的人或事物获得的奖项是什么</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的前一任是谁</t>
-  </si>
-  <si>
-    <t>NER的候选的毕业院校的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>在NER南边的地点属于哪个时区</t>
-  </si>
-  <si>
-    <t>被用来命名NER的人的出生地是哪里</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的分类等级是什么</t>
-  </si>
-  <si>
-    <t>NER的主场东南部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>2003年世界摔跤娱乐付费观看活动NER的赞助商属于哪个系列</t>
-  </si>
-  <si>
-    <t>NER的委托人有哪些后代</t>
-  </si>
-  <si>
-    <t>谁是使用NER的国家的皇帝</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物属于什么分类等级</t>
-  </si>
-  <si>
-    <t>NER，西班牙加泰罗尼亚奥索纳科马卡市的一个自治市，其西北方地点属于哪个时区</t>
-  </si>
-  <si>
-    <t>同2017年超级碗的中场休息秀NER的赞助商相关的事物是什么</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物有哪些后代</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者是做什么职业的</t>
-  </si>
-  <si>
-    <t>NER的举办地的代表在哪个国家</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，其教练的定位是什么</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物在什么地方出生的</t>
-  </si>
-  <si>
-    <t>NER的头衔属于哪里属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER，古埃及早期王朝邦联（约公元3150年），其领导人的前一任是谁</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物用什么邮政编码</t>
-  </si>
-  <si>
-    <t>足球队的一个赛季NER的位置北部的城市属于哪个时区</t>
-  </si>
-  <si>
-    <t>参与维基媒体列表文章NER的所在城市的命名来源的国家有哪些</t>
-  </si>
-  <si>
-    <t>NER的南部城市的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的后裔的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>1998年的单曲，由沙奎尔·奥尼尔、dj奎克、塔里克勋爵和彼得·冈兹演唱NER的创作者的选秀队伍是什么</t>
-  </si>
-  <si>
-    <t>NER的作者的继任者做什么职业的</t>
-  </si>
-  <si>
-    <t>2000年欧洲足球锦标赛的最后一场比赛NER相关赛事在哪里举办的</t>
-  </si>
-  <si>
-    <t>NER的领导人在哪里就职</t>
-  </si>
-  <si>
-    <t>NER的母校的所属国家是什么</t>
-  </si>
-  <si>
-    <t>NER的举办地的运营方在哪个城市</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其俱乐部地点的队长效力于哪个球队</t>
-  </si>
-  <si>
-    <t>美国犹他州塞维尔县的一个城镇NER西北部的地点西南部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物属于什么分类等级</t>
+    <t>NER名称的来源属于哪个领域的</t>
+  </si>
+  <si>
+    <t>NER的举办地的继任者的继任者是哪位</t>
   </si>
   <si>
     <t>NER的发源地的立法机构属于哪个党派</t>
-  </si>
-  <si>
-    <t>演唱NER歌曲的艺人的类型是什么</t>
-  </si>
-  <si>
-    <t>NER扮演过在哪里就职</t>
-  </si>
-  <si>
-    <t>NER的赞助商的出版商是哪个</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的后裔是谁</t>
-  </si>
-  <si>
-    <t>被用来命名NER的人的母校叫什么</t>
-  </si>
-  <si>
-    <t>1998年的单曲，由沙奎尔·奥尼尔、dj奎克、塔里克勋爵和彼得·冈兹演唱NER的创作者的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的举办地的运营方被命名为什么</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，其位置西南部的地点的时区是什么</t>
-  </si>
-  <si>
-    <t>NER涉及的事件的前一任是谁</t>
-  </si>
-  <si>
-    <t>NER的南边地区的时区是什么</t>
-  </si>
-  <si>
-    <t>NER的位置西北部的地点领导人的名字是</t>
-  </si>
-  <si>
-    <t>为omarion的专辑NER演出的歌手是做什么职业的</t>
-  </si>
-  <si>
-    <t>NER的赞助商是什么类型的公司</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者是谁的上一任</t>
-  </si>
-  <si>
-    <t>NER的举办地的立法机构属于哪个王朝</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的妈妈叫什么</t>
-  </si>
-  <si>
-    <t>与NER，一艘法国船，它有相同名称的人、事、物属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER所包含的赛事在哪里举办的</t>
-  </si>
-  <si>
-    <t>NER所包含的赛事的举办地在哪里</t>
-  </si>
-  <si>
-    <t>汉堡护航船NER的同名是谁的继任者</t>
-  </si>
-  <si>
-    <t>丹麦王子（生于1969年）NER的后裔的继任者的母亲是谁</t>
-  </si>
-  <si>
-    <t>NER的父亲的出生地是哪里</t>
-  </si>
-  <si>
-    <t>NER的举办地的运营方的地址在哪里</t>
-  </si>
-  <si>
-    <t>NER，一个足球队的赛季，它的举办地的租客的主席叫什么</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的拥有者是谁创始的</t>
-  </si>
-  <si>
-    <t>NER的郡西边的地方叫什么</t>
-  </si>
-  <si>
-    <t>和受NER，一艘历史悠久的法国船只，它名称一样的人或事物影响的人是谁</t>
-  </si>
-  <si>
-    <t>NER的举办地的运营方所属城市是哪里</t>
-  </si>
-  <si>
-    <t>NER的同名信仰哪个宗教</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其俱乐部地点的队长有什么定位</t>
-  </si>
-  <si>
-    <t>NER的同名属于什么分类等级</t>
-  </si>
-  <si>
-    <t>与1948年战争期间，一艘埃及-英国制造的单桅帆船沉没NER有相同名称的人、事、物的配偶是哪位</t>
-  </si>
-  <si>
-    <t>NER的同名是谁的孩子</t>
-  </si>
-  <si>
-    <t>NER的后裔的下一任的爸爸是谁</t>
-  </si>
-  <si>
-    <t>NER的创作者的类型是什么</t>
-  </si>
-  <si>
-    <t>美国大学橄榄球队赛季NER的位置的运营方的前任是什么</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人属于哪个领域的</t>
-  </si>
-  <si>
-    <t>NER的举办地的立法机构属于哪个党派</t>
-  </si>
-  <si>
-    <t>NER的头衔的下一任的上一代是谁</t>
-  </si>
-  <si>
-    <t>NER的同名的立法机构是什么</t>
-  </si>
-  <si>
-    <t>孟加拉国总统NER的头衔的现任就职者具有哪些头衔</t>
-  </si>
-  <si>
-    <t>NER的西北方地点属于哪个时区</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的时区是什么</t>
-  </si>
-  <si>
-    <t>波兰东南部的一座山脉NER的父本的行政中心用什么时区</t>
-  </si>
-  <si>
-    <t>NER所属的区域东北部的地点的首都（或省会）是哪里</t>
-  </si>
-  <si>
-    <t>NER的镇长在哪儿驻地</t>
-  </si>
-  <si>
-    <t>NER的同名的领导人叫什么</t>
-  </si>
-  <si>
-    <t>美国雕塑家NER的母校附属于哪个机构</t>
-  </si>
-  <si>
-    <t>NER的将领的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的同名有哪些后代</t>
-  </si>
-  <si>
-    <t>美国篮球教练NER的母校所属城市是哪里</t>
-  </si>
-  <si>
-    <t>NER，1892年，日本在1892年举行的一次大选的选举获胜者的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的赞助商是什么选区</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物领导人的头衔有哪些</t>
-  </si>
-  <si>
-    <t>与船NER有相同名称的人、事、物的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER，一个体育频道，它的赞助商的产品是什么</t>
-  </si>
-  <si>
-    <t>NER所在国家建立的标志事件是什么</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人的职业是什么</t>
-  </si>
-  <si>
-    <t>NER的所属队伍的创始人是做什么职业的</t>
-  </si>
-  <si>
-    <t>NER的位置西北部的地点领导人的头衔是什么</t>
-  </si>
-  <si>
-    <t>NER的配偶的配偶的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>在NER里的人士是谁的孩子</t>
-  </si>
-  <si>
-    <t>NER逝世的地方西部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的主题是什么类型的</t>
-  </si>
-  <si>
-    <t>NER，俾斯麦级战列舰，其同名获得的奖项是什么</t>
-  </si>
-  <si>
-    <t>NER的继任者俱乐部地点被命名为什么</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人的逝世地是哪里</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物是什么的一部分</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的队长效力于哪个球队</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的队长现在属于哪个俱乐部</t>
-  </si>
-  <si>
-    <t>NER的母校附属于哪个机构</t>
-  </si>
-  <si>
-    <t>谁领导了NER的事件</t>
-  </si>
-  <si>
-    <t>NER影响到的国家和地区是谁领导的</t>
-  </si>
-  <si>
-    <t>NER，爱尔兰男爵，其母校驻守的区域是哪里</t>
-  </si>
-  <si>
-    <t>NER的南部城市属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER名称的来源的职业是什么</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER的赞助商的产品是什么</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的上一代是什么</t>
-  </si>
-  <si>
-    <t>NER的发源地西南部的地点的省会是哪里</t>
-  </si>
-  <si>
-    <t>NER的教练参加过的社团是什么</t>
-  </si>
-  <si>
-    <t>NER，法国的一个州，其主要城镇的属于哪个区</t>
-  </si>
-  <si>
-    <t>NER的作词者的上一代属于哪个民族的</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人的领域是什么</t>
-  </si>
-  <si>
-    <t>NER的领导人的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的队长的定位是什么</t>
-  </si>
-  <si>
-    <t>NER的南部城市属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER，昆虫的一个属，其代表西部的地点属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER名称的来源属于哪个领域的</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的区划是什么</t>
-  </si>
-  <si>
-    <t>和NER，一艘船，它名称一样的人或事物的妈妈叫什么</t>
-  </si>
-  <si>
-    <t>NER的举办地的上一代是谁的上一任</t>
-  </si>
-  <si>
-    <t>NER的位置东北部的地点属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，其位置西北部的地点领导人的头衔有哪些</t>
-  </si>
-  <si>
-    <t>和NER，一艘阿利·伯克级导弹驱逐舰，其名称一样的人或事物参加的战争是什么</t>
-  </si>
-  <si>
-    <t>被用来命名NER的人有什么成名作</t>
-  </si>
-  <si>
-    <t>美国犹他州犹他县的一座山脉NER的所在城市东北部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>一场体育比赛NER的举办地东部的地点的领导人叫什么</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其所在城市西北部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER的同名属于哪个党派</t>
-  </si>
-  <si>
-    <t>NER所属的唱片公司是谁创始的</t>
-  </si>
-  <si>
-    <t>NER的同名是谁的继任者</t>
-  </si>
-  <si>
-    <t>与巴库登瓷器NER有相同名称的人、事、物的缘由是什么</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的举办地被谁租用</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物在哪里逝世的</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其俱乐部地点的队长的出生城市在哪里</t>
-  </si>
-  <si>
-    <t>NER的头衔的作词者的语言是什么</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人的母校是什么</t>
-  </si>
-  <si>
-    <t>NER，加泰罗尼亚的一个自治市，其西北方向的地区的区划是什么</t>
-  </si>
-  <si>
-    <t>足球比赛NER的举办地东部的地点领导人的名字是</t>
-  </si>
-  <si>
-    <t>1915年皇家海军伊丽莎白女王级战舰NER的同名发生的事件</t>
-  </si>
-  <si>
-    <t>和NER，一艘历史悠久的法国船只，它名称一样的人或事物影响了谁</t>
-  </si>
-  <si>
-    <t>NER的继任者的头衔的副手被称为什么</t>
-  </si>
-  <si>
-    <t>NER的作词者的上一代用什么语言</t>
-  </si>
-  <si>
-    <t>NER的赞助商有什么产品</t>
-  </si>
-  <si>
-    <t>法国政治家（1907-2000）NER的上一代的前任所属的党派是什么</t>
-  </si>
-  <si>
-    <t>NER的父母信仰哪个宗教</t>
-  </si>
-  <si>
-    <t>NER，一艘法国“查卡尔”级的主力舰，其同名属于什么分类等级</t>
-  </si>
-  <si>
-    <t>NER，70年的纽约尼克斯赛季，国家篮球协会球队纽约尼克斯队的一个赛季的举办地东北部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的同名是谁的上一任</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，它的举办地的继任者的佃户是谁</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的后裔是谁</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的成名作是什么</t>
-  </si>
-  <si>
-    <t>NER的领导人的母校叫什么</t>
-  </si>
-  <si>
-    <t>在西班牙的一个自治市NER的西北部的地方的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的领导人的头衔是什么</t>
-  </si>
-  <si>
-    <t>被用来命名NER的人的出生地在哪里</t>
-  </si>
-  <si>
-    <t>NER，一个足球队的赛季，它的位置的代表是哪个国家的</t>
-  </si>
-  <si>
-    <t>西班牙加泰罗尼亚自治区吉罗纳省的一个村庄NER的西北方地点在哪个区域</t>
-  </si>
-  <si>
-    <t>NER的将领具有哪些头衔</t>
-  </si>
-  <si>
-    <t>美国大学篮球赛季NER的主场北部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的所在省份属于哪个时区</t>
-  </si>
-  <si>
-    <t>参与蔡依林2006年的一首歌NER的歌手的职业是什么</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物逝世的地方是哪里</t>
-  </si>
-  <si>
-    <t>在NER，位于西班牙加泰罗尼亚baix Llobregat的一个小镇，其西北部的地方的区划是什么</t>
-  </si>
-  <si>
-    <t>乌克兰足球运动员NER的国家队的举办地西北部是什么地方</t>
-  </si>
-  <si>
-    <t>与NER有关的产品或作品是谁创造的</t>
-  </si>
-  <si>
-    <t>使用古代朝鲜百济王国的一种语言NER的国家信仰哪个宗教</t>
-  </si>
-  <si>
-    <t>NER相关的事件由哪位将领领导</t>
-  </si>
-  <si>
-    <t>NER，美国大学篮球赛季，其主场南部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的举办地的继任者的拥有者是谁</t>
-  </si>
-  <si>
-    <t>NER的母校的所在的省份是哪里</t>
-  </si>
-  <si>
-    <t>NER的事件说什么通用语言</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的同名参加了什么战争</t>
-  </si>
-  <si>
-    <t>日本贵族（1536-1612）NER的父亲的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的同名的标志性地点是哪里</t>
-  </si>
-  <si>
-    <t>在美国代托纳举行的汽车比赛NER的赞助商有什么产品</t>
-  </si>
-  <si>
-    <t>NER的后裔是谁的上一任</t>
-  </si>
-  <si>
-    <t>NER东部的地点西北部的地点在哪个区域</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其所在城市东部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物是什么级别的</t>
-  </si>
-  <si>
-    <t>NER持有的席位的所属议会属于哪个党派</t>
-  </si>
-  <si>
-    <t>NER的创作者是什么类型的</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者在哪里就职</t>
-  </si>
-  <si>
-    <t>NER的镇长的驻地在哪儿</t>
-  </si>
-  <si>
-    <t>NER的发源地的行政中心属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的位置北部的地点在哪个区域</t>
-  </si>
-  <si>
-    <t>与智能手机模型NER相关的产品的生产商是谁</t>
-  </si>
-  <si>
-    <t>NER的头衔的第一人参加了什么战争</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物有什么标志性的地点</t>
-  </si>
-  <si>
-    <t>维基媒体列表文章NER的位置西南部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者所在的州是哪里</t>
-  </si>
-  <si>
-    <t>NER的所在城市西北部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的位置西部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的父母的后代是什么</t>
-  </si>
-  <si>
-    <t>NER的南边地区在哪个区域</t>
-  </si>
-  <si>
-    <t>NER，英国政治家（生于1967年），其领导人所属的党派是什么</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人逝世的地方是哪里</t>
-  </si>
-  <si>
-    <t>NER，足球队的赛季，其举办地的运营方所属城市是哪里</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的隶属行政区是哪里</t>
-  </si>
-  <si>
-    <t>NER的创作者使用的乐器是什么</t>
-  </si>
-  <si>
-    <t>NER的发源地的行政中心的所属区域是什么</t>
-  </si>
-  <si>
-    <t>与NER，一艘法国驱逐舰，它有相同名称的人、事、物的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>NER的相关产品（作品）与什么有关</t>
-  </si>
-  <si>
-    <t>NER的头衔的作词者做什么职业的</t>
-  </si>
-  <si>
-    <t>NER的举办地的租客由哪个经理领导</t>
-  </si>
-  <si>
-    <t>NER的主场西北部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物效忠于谁</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，其举办地的运营方所属城市是哪里</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人影响了谁</t>
-  </si>
-  <si>
-    <t>NER名称的来源是做什么职业的</t>
-  </si>
-  <si>
-    <t>NER的位置北部的城市在哪个区域</t>
-  </si>
-  <si>
-    <t>NER的候选的前任在哪里就职</t>
-  </si>
-  <si>
-    <t>NER，一位2世纪的罗马参议员、执政官和州长，他的上一代的继任者在哪里逝世的</t>
-  </si>
-  <si>
-    <t>维基媒体列表文章NER的所在城市南部的地点用什么时区</t>
-  </si>
-  <si>
-    <t>NER，英国政治家（生于1943年），其头衔的现任就职者的前任是什么</t>
-  </si>
-  <si>
-    <t>孤立的人类群体NER相关的事件的地区是什么</t>
-  </si>
-  <si>
-    <t>NER的继任者的上一代的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个季节，它的举办地的租客的地址在哪里</t>
-  </si>
-  <si>
-    <t>日本女皇（680-748）NER的父亲有哪些后代</t>
-  </si>
-  <si>
-    <t>NER的同名用什么邮政编码</t>
-  </si>
-  <si>
-    <t>NER的母校属于什么类型</t>
-  </si>
-  <si>
-    <t>NER的南部城市的时区是什么</t>
-  </si>
-  <si>
-    <t>为NER演出的歌手用什么语言</t>
-  </si>
-  <si>
-    <t>被用来命名NER的人的成名作是什么</t>
-  </si>
-  <si>
-    <t>与纵帆船、西班牙训练船NER有相同名称的人、事、物逝世的地方是哪里</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物最大的城市是什么</t>
-  </si>
-  <si>
-    <t>NER的父亲的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的头衔的首任的前一任是谁</t>
-  </si>
-  <si>
-    <t>NER的所在省份在国内属于什么区域</t>
-  </si>
-  <si>
-    <t>NER的举办地的继任者的佃户是谁</t>
-  </si>
-  <si>
-    <t>NER的国家队的举办地的成立是由哪个事件决定的</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物参加的战争是什么</t>
-  </si>
-  <si>
-    <t>被用来命名泰坦上的湖NER的人在什么位置</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物的爸爸是谁</t>
-  </si>
-  <si>
-    <t>美国犹他州桑皮特县的一个城镇NER南部的地点西北部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER的同名有什么标志性的地点</t>
-  </si>
-  <si>
-    <t>NER的相关事物与什么有关</t>
-  </si>
-  <si>
-    <t>NER的成名作的运营方是谁</t>
-  </si>
-  <si>
-    <t>在NER南边的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER的候选的头衔现在由谁担任</t>
-  </si>
-  <si>
-    <t>香港政治家NER扮演过的继任者是哪位</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物有哪些后代</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的队长出生的国家是什么</t>
-  </si>
-  <si>
-    <t>NER的举办地南部的地点在哪个区域</t>
-  </si>
-  <si>
-    <t>一种结NER的相关产品（作品）与什么有关</t>
-  </si>
-  <si>
-    <t>与齿轮级驱逐舰NER有相同名称的人、事、物所属的党派是什么</t>
-  </si>
-  <si>
-    <t>NER的南部城市用什么时区</t>
-  </si>
-  <si>
-    <t>NER的候选的继任者具有哪些头衔</t>
-  </si>
-  <si>
-    <t>NER相关的事件的后裔是谁</t>
-  </si>
-  <si>
-    <t>NER的举办地的继任者的继任者是哪位</t>
-  </si>
-  <si>
-    <t>维基媒体列表文章NER俱乐部地点的队长效力于哪个球队</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人的成名作是什么</t>
-  </si>
-  <si>
-    <t>NER引发的结果有关的人或物的继任者是哪位</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物参加了什么战争</t>
-  </si>
-  <si>
-    <t>与NER有相同名称的人、事、物属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的前任是什么</t>
-  </si>
-  <si>
-    <t>NER，居住在美国境外的美国公民，其所属的区域的立法机构属于哪个党派</t>
-  </si>
-  <si>
-    <t>NER，安瓦尔，2006年的选举获胜者的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的位置的行政中心属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的西北方地点的驻地在哪儿</t>
-  </si>
-  <si>
-    <t>美国犹他州博克斯埃尔德县的一个城镇NER东部的地点南部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的母校是什么</t>
-  </si>
-  <si>
-    <t>NER的同名的来源是什么</t>
-  </si>
-  <si>
-    <t>NER的举办地的租客的主席是谁</t>
-  </si>
-  <si>
-    <t>沃尔NER的选举获胜者具有哪些头衔</t>
-  </si>
-  <si>
-    <t>NER，博茨瓦纳的一个柏格沃克人，它的所在省份的省会是哪里</t>
-  </si>
-  <si>
-    <t>NER的同名与什么有关</t>
-  </si>
-  <si>
-    <t>美国犹他州米勒德县的一个城镇NER东南部的地点东部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的选民出自哪里</t>
-  </si>
-  <si>
-    <t>战斗NER引发的结果有关的人或物的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的统治者的配偶的头衔是什么</t>
-  </si>
-  <si>
-    <t>NER的领导人是谁领导的</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者具有哪些头衔</t>
-  </si>
-  <si>
-    <t>NER的国籍的立法机构所属的党派是什么</t>
-  </si>
-  <si>
-    <t>NER，一个菲利阿兹克斯，它的主题的作者是谁</t>
-  </si>
-  <si>
-    <t>NER逝世的地方西部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的领导人信仰哪个宗教</t>
-  </si>
-  <si>
-    <t>美国中南部的高地地区NER所属的区域的立法机构是谁领导的</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物在什么位置</t>
-  </si>
-  <si>
-    <t>古埃及女王的配偶NER的配偶的下一代的母亲是谁</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的出生地是哪里</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其俱乐部地点的队长所属国家队是什么</t>
-  </si>
-  <si>
-    <t>NER，美国大学篮球赛季，其主场的立法机构是谁领导的</t>
-  </si>
-  <si>
-    <t>NER的父亲属于哪个王朝</t>
-  </si>
-  <si>
-    <t>芬兰赛车手NER的所属队伍的创始人的出生地在哪里</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其自治区南部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>在NER的西北部的地方的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER的同名的分类等级是什么</t>
-  </si>
-  <si>
-    <t>NER的主场东部的地点在哪个区域</t>
-  </si>
-  <si>
-    <t>NER的将领有哪些后代</t>
-  </si>
-  <si>
-    <t>美国海军史基普·范德NER的同名的时区是什么</t>
-  </si>
-  <si>
-    <t>沃尔NER的选举获胜者在哪个州</t>
-  </si>
-  <si>
-    <t>NER的领导人的首相是谁</t>
-  </si>
-  <si>
-    <t>NER的统治者的后裔的头衔是什么</t>
-  </si>
-  <si>
-    <t>NER的继任者的队长现在属于哪个俱乐部</t>
-  </si>
-  <si>
-    <t>NER涉及的事件是哪个地区的</t>
-  </si>
-  <si>
-    <t>使用NER的国家的标签是什么</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者的君王是谁</t>
-  </si>
-  <si>
-    <t>足球队的一个赛季NER参加的重要赛事的参赛队伍是谁</t>
-  </si>
-  <si>
-    <t>与德拉奇级装甲护卫舰NER有相同名称的人、事、物的分类等级是什么</t>
-  </si>
-  <si>
-    <t>NER的出生国家领导者的职称是什么</t>
-  </si>
-  <si>
-    <t>维基媒体列表文章NER的所在城市南部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>NER，一个体育季，它的队伍的地址在哪里</t>
-  </si>
-  <si>
-    <t>天主教主教NER逝世的地方东北部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，其举办地的运营方被命名为什么</t>
-  </si>
-  <si>
-    <t>北爱尔兰贝尔法斯特的一座民用建筑NER所在国家建立的标志事件是什么</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其俱乐部地点的队长的所在球队是什么</t>
-  </si>
-  <si>
-    <t>NER，足球队的一个赛季，它的位置西北部的地点领导人的头衔有哪些</t>
-  </si>
-  <si>
-    <t>NER的头衔的作词者的职业是什么</t>
-  </si>
-  <si>
-    <t>NER的后裔属于哪个王朝</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER，这是一首由卡洛斯·桑塔纳演唱的歌曲，它是的创作者用的是什么乐器</t>
-  </si>
-  <si>
-    <t>西班牙巴塞罗那省和加泰罗尼亚自治区的一个村庄NER的南边地区的时区是什么</t>
-  </si>
-  <si>
-    <t>NER的母校效力的总统是谁</t>
-  </si>
-  <si>
-    <t>NER的父亲的配偶是哪位</t>
-  </si>
-  <si>
-    <t>巴西的一个联邦州NER的最大城市的区划是什么</t>
-  </si>
-  <si>
-    <t>NER的同名的省会是哪里</t>
-  </si>
-  <si>
-    <t>来自阿拉巴马州的美国政治家NER的头衔属于哪里用什么时区</t>
-  </si>
-  <si>
-    <t>NER参加的重要赛事的参赛队伍是谁</t>
-  </si>
-  <si>
-    <t>NER的选举获胜者所属的党派是什么</t>
-  </si>
-  <si>
-    <t>NER的子女具有哪些头衔</t>
-  </si>
-  <si>
-    <t>NER，足球队的赛季，其举办地的运营方效力于哪个联赛</t>
-  </si>
-  <si>
-    <t>NER名称的来源的国籍是什么</t>
-  </si>
-  <si>
-    <t>NER的母校在哪个城市</t>
-  </si>
-  <si>
-    <t>NER的举办地东南部的地点用什么时区</t>
-  </si>
-  <si>
-    <t>与NER，一艘船，它有相同名称的人、事、物属于什么分类等级</t>
-  </si>
-  <si>
-    <t>NER的位置东北部的地点的区划是什么</t>
-  </si>
-  <si>
-    <t>NER，wwe的2012冠军之夜按次付费，其赞助商是谁主演的</t>
-  </si>
-  <si>
-    <t>NER的领导人是谁的继任者</t>
-  </si>
-  <si>
-    <t>法国的一个州（至2015年3月）NER的主要城镇是哪个区的</t>
-  </si>
-  <si>
-    <t>NER东南部的地点西南部的地点在哪个区域</t>
-  </si>
-  <si>
-    <t>维基媒体列表文章NER的位置东部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>NER，一个跨大学篮球赛季，其主场的所属区划的地区是什么</t>
-  </si>
-  <si>
-    <t>NER，美国大学篮球赛季，其主场西部的地点的所属区域是什么</t>
-  </si>
-  <si>
-    <t>埃及国王NER的配偶的母亲有哪些后代</t>
-  </si>
-  <si>
-    <t>同NER的赞助商相关的事物是什么</t>
-  </si>
-  <si>
-    <t>明尼苏达州的选举NER的选举获胜者获得的奖项是什么</t>
-  </si>
-  <si>
-    <t>NER俱乐部地点的队长所属国家队是什么</t>
-  </si>
-  <si>
-    <t>NER负责的行政区域的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的信仰宗教是什么</t>
-  </si>
-  <si>
-    <t>与哪些国家在NER有相同名称的人、事、物中参与了战争</t>
-  </si>
-  <si>
-    <t>名字被用于命名NER的人在哪个区域</t>
-  </si>
-  <si>
-    <t>NER，西班牙的一个自治市，其南边地区属于哪个时区</t>
-  </si>
-  <si>
-    <t>NER的后裔的上一代的母亲是谁</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的前任是什么</t>
-  </si>
-  <si>
-    <t>蔡依林2006年的一首歌NER歌曲的演唱歌手做什么职业的</t>
-  </si>
-  <si>
-    <t>NER，汤米·弗拉纳根的专辑，其创作者的职业是什么</t>
-  </si>
-  <si>
-    <t>NER的所在城市西南部的地点属于哪个区划</t>
-  </si>
-  <si>
-    <t>NER的继任者的运营方的上一代是什么</t>
-  </si>
-  <si>
-    <t>NER的前任的头衔属于哪里</t>
-  </si>
-  <si>
-    <t>NER的同名的继任者是哪位</t>
-  </si>
-  <si>
-    <t>NER的位置南部的地点领导人的头衔是什么</t>
-  </si>
-  <si>
-    <t>NER的同名的所属区域是什么</t>
-  </si>
-  <si>
-    <t>西班牙加泰罗尼亚的一个自治市NER的南边地区的区划是什么</t>
-  </si>
-  <si>
-    <t>和NER名称一样的人或事物的省会是哪里</t>
-  </si>
-  <si>
-    <t>NER，法国的一个州，其主要城镇在哪儿驻地</t>
-  </si>
-  <si>
-    <t>NER的领导人的前一任是谁</t>
-  </si>
-  <si>
-    <t>美国大学橄榄球队赛季NER的位置的运营方是谁的上一任</t>
-  </si>
-  <si>
-    <t>同NER的相关事物相关的事物是什么</t>
-  </si>
-  <si>
-    <t>NER的同名的头衔是什么</t>
-  </si>
-  <si>
-    <t>NER，维基媒体列表文章，其俱乐部地点的队长现在属于哪个俱乐部</t>
-  </si>
-  <si>
-    <t>NER的父亲所属的王朝是什么</t>
-  </si>
-  <si>
-    <t>NER，一位中国政治家（1886-1975），他扮演过的主席是谁</t>
-  </si>
-  <si>
-    <t>NER的国家队的位置的立法机构是什么</t>
-  </si>
-  <si>
-    <t>战争NER的参与国之前的机构叫什么</t>
   </si>
 </sst>
 </file>
@@ -1829,267 +1829,267 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -2159,117 +2159,117 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -2289,177 +2289,177 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:1">
@@ -2489,42 +2489,42 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:1">
@@ -2559,437 +2559,437 @@
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>239</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" spans="1:1">
@@ -3009,62 +3009,62 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="283" spans="1:1">
@@ -3094,337 +3094,337 @@
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>269</v>
+        <v>83</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>276</v>
+        <v>96</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>285</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>132</v>
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>29</v>
+        <v>300</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
     </row>
     <row r="355" spans="1:1">
@@ -3434,717 +3434,717 @@
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>326</v>
+        <v>37</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>333</v>
+        <v>99</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>353</v>
+        <v>208</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>356</v>
+        <v>83</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>357</v>
+        <v>228</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>208</v>
+        <v>350</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>363</v>
+        <v>214</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>116</v>
+        <v>357</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>23</v>
+        <v>359</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>121</v>
+        <v>361</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>370</v>
+        <v>123</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>373</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>384</v>
+        <v>48</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>389</v>
+        <v>153</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>5</v>
+        <v>378</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>49</v>
+        <v>382</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>182</v>
+        <v>383</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>81</v>
+        <v>390</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>400</v>
+        <v>140</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>201</v>
+        <v>396</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>404</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>2</v>
+        <v>397</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>406</v>
+        <v>48</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>55</v>
+        <v>399</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>5</v>
+        <v>406</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>156</v>
+        <v>407</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>27</v>
+        <v>408</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>114</v>
+        <v>413</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>420</v>
+        <v>238</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
     </row>
     <row r="499" spans="1:1">
